--- a/Resonancia/resonancia.xlsx
+++ b/Resonancia/resonancia.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/macbookpro/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/macbookpro/Desktop/Ondas/Resonancia/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4F4E3745-F3CF-B547-9621-DCBB938EAFF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{556660E4-8F4E-2C41-B4AC-51897A59C9BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="0" windowWidth="28040" windowHeight="16620" xr2:uid="{1492E6AA-C6EF-5546-9C91-95538ADD51E7}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{1492E6AA-C6EF-5546-9C91-95538ADD51E7}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Frecuencia [Hz]</t>
   </si>
@@ -49,11 +49,20 @@
   <si>
     <t>Desfase [º]</t>
   </si>
+  <si>
+    <t>ω [rad/s]</t>
+  </si>
+  <si>
+    <t>𝛿 [rad]</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="168" formatCode="0.000"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -71,7 +80,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -97,11 +106,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -111,6 +131,24 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -128,6 +166,66 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>425450</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="65" cy="172227"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="CuadroTexto 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2980422E-F997-46C2-9684-3950E609C1E9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8540750" y="3517900"/>
+          <a:ext cx="65" cy="172227"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="es-MX" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -447,10 +545,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B542A1EC-93E2-B049-B06B-454188452D8C}">
-  <dimension ref="C1:F12"/>
+  <dimension ref="C1:H12"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -458,15 +556,18 @@
     <col min="3" max="3" width="13.83203125" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="12.83203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="3:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
-    </row>
-    <row r="2" spans="3:6" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+    </row>
+    <row r="2" spans="3:8" ht="17" thickTop="1" x14ac:dyDescent="0.2">
       <c r="C2" s="2" t="s">
         <v>0</v>
       </c>
@@ -479,8 +580,14 @@
       <c r="F2" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="G2" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C3" s="1">
         <v>5500</v>
       </c>
@@ -493,8 +600,16 @@
       <c r="F3" s="1">
         <v>-38.5</v>
       </c>
-    </row>
-    <row r="4" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="G3" s="5">
+        <f>C3*2*PI()</f>
+        <v>34557.519189487721</v>
+      </c>
+      <c r="H3" s="9">
+        <f>F3*PI()/180</f>
+        <v>-0.67195176201781692</v>
+      </c>
+    </row>
+    <row r="4" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C4" s="1">
         <v>6000</v>
       </c>
@@ -507,8 +622,16 @@
       <c r="F4" s="1">
         <v>-30.8</v>
       </c>
-    </row>
-    <row r="5" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="G4" s="5">
+        <f t="shared" ref="G4:G11" si="0">C4*2*PI()</f>
+        <v>37699.111843077517</v>
+      </c>
+      <c r="H4" s="9">
+        <f t="shared" ref="H4:H11" si="1">F4*PI()/180</f>
+        <v>-0.53756140961425358</v>
+      </c>
+    </row>
+    <row r="5" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C5" s="1">
         <v>6500</v>
       </c>
@@ -521,8 +644,16 @@
       <c r="F5" s="1">
         <v>-21.5</v>
       </c>
-    </row>
-    <row r="6" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="G5" s="5">
+        <f t="shared" si="0"/>
+        <v>40840.704496667313</v>
+      </c>
+      <c r="H5" s="9">
+        <f t="shared" si="1"/>
+        <v>-0.37524578917878082</v>
+      </c>
+    </row>
+    <row r="6" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C6" s="1">
         <v>7000</v>
       </c>
@@ -535,8 +666,16 @@
       <c r="F6" s="1">
         <v>-11.2</v>
       </c>
-    </row>
-    <row r="7" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="G6" s="5">
+        <f t="shared" si="0"/>
+        <v>43982.297150257102</v>
+      </c>
+      <c r="H6" s="9">
+        <f t="shared" si="1"/>
+        <v>-0.1954768762233649</v>
+      </c>
+    </row>
+    <row r="7" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C7" s="1">
         <v>7500</v>
       </c>
@@ -549,8 +688,16 @@
       <c r="F7" s="1">
         <v>-0.5</v>
       </c>
-    </row>
-    <row r="8" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="G7" s="5">
+        <f t="shared" si="0"/>
+        <v>47123.889803846898</v>
+      </c>
+      <c r="H7" s="9">
+        <f t="shared" si="1"/>
+        <v>-8.7266462599716477E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C8" s="1">
         <v>8000</v>
       </c>
@@ -563,8 +710,16 @@
       <c r="F8" s="1">
         <v>7.48</v>
       </c>
-    </row>
-    <row r="9" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="G8" s="5">
+        <f t="shared" si="0"/>
+        <v>50265.482457436687</v>
+      </c>
+      <c r="H8" s="9">
+        <f t="shared" si="1"/>
+        <v>0.13055062804917586</v>
+      </c>
+    </row>
+    <row r="9" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C9" s="1">
         <v>8500</v>
       </c>
@@ -577,8 +732,16 @@
       <c r="F9" s="1">
         <v>17</v>
       </c>
-    </row>
-    <row r="10" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="G9" s="5">
+        <f t="shared" si="0"/>
+        <v>53407.075111026483</v>
+      </c>
+      <c r="H9" s="9">
+        <f t="shared" si="1"/>
+        <v>0.29670597283903605</v>
+      </c>
+    </row>
+    <row r="10" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C10" s="1">
         <v>9000</v>
       </c>
@@ -591,8 +754,16 @@
       <c r="F10" s="1">
         <v>25.2</v>
       </c>
-    </row>
-    <row r="11" spans="3:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G10" s="5">
+        <f t="shared" si="0"/>
+        <v>56548.667764616279</v>
+      </c>
+      <c r="H10" s="9">
+        <f t="shared" si="1"/>
+        <v>0.43982297150257099</v>
+      </c>
+    </row>
+    <row r="11" spans="3:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C11" s="4">
         <v>9500</v>
       </c>
@@ -605,9 +776,18 @@
       <c r="F11" s="4">
         <v>32</v>
       </c>
-    </row>
-    <row r="12" spans="3:6" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
+      <c r="G11" s="6">
+        <f t="shared" si="0"/>
+        <v>59690.260418206068</v>
+      </c>
+      <c r="H11" s="10">
+        <f t="shared" si="1"/>
+        <v>0.55850536063818546</v>
+      </c>
+    </row>
+    <row r="12" spans="3:8" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>